--- a/content_of_the_website.xlsx
+++ b/content_of_the_website.xlsx
@@ -424,347 +424,66 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;html lang="pl" class=""&gt;&lt;head&gt;
-        &lt;!-- Google Tag Manager --&gt;
-&lt;script async="" src="https://www.googletagmanager.com/gtm.js?id=GTM-K8CWHCH"&gt;&lt;/script&gt;&lt;script&gt;(function(w,d,s,l,i){w[l]=w[l]||[];w[l].push({'gtm.start':
-new Date().getTime(),event:'gtm.js'});var f=d.getElementsByTagName(s)[0],
-j=d.createElement(s),dl=l!='dataLayer'?'&amp;l='+l:'';j.async=true;j.src=
-'https://www.googletagmanager.com/gtm.js?id='+i+dl;f.parentNode.insertBefore(j,f);
-})(window,document,'script','dataLayer','GTM-K8CWHCH');&lt;/script&gt;
-&lt;!-- End Google Tag Manager --&gt;
-&lt;meta http-equiv="Content-Type" content="text/html; charset=utf-8"&gt;
-&lt;meta name="keywords" content="Akcje, obligacje, indeksy, NewConnect, Catalyst, kontrakty terminowe, opcje, notowania spółek, instrumenty pochodne, produkty strukturyzowane, ETF, certyfikaty inwestycyjne"&gt;&lt;meta name="description" content="Największa giełda instrumentów finansowych w regionie Europy Środkowej i Wschodniej. Jedna z najlepiej rozpoznawalnych polskich instytucji finansowych."&gt;
-&lt;meta name="robots" content="index, follow"&gt;
-&lt;meta name="revisit-after" content="5 days"&gt;&lt;meta name="author" content="SUPERMEDIA Interactive"&gt;
-&lt;meta http-equiv="Content-Language" content="pl"&gt;
-&lt;meta name="Content-Type" content="text/html; charset=pl"&gt;
-&lt;title&gt;Główny Rynek GPW - Rynek Główny&lt;/title&gt;
-&lt;link rel="shortcut icon" href="/favicon_blue.ico" type="image/ico"&gt;	
-&lt;base href="/"&gt;
-&lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-&lt;meta http-equiv="x-ua-compatible" content="ie=edge"&gt;
-&lt;!-- Text --&gt;
-&lt;link href="html/css/fonts/open_sans.css" rel="stylesheet" type="text/css"&gt;
-&lt;link href="html/css/fonts/open_sans_condensed.css" rel="stylesheet" type="text/css"&gt;
-&lt;!--[if lt IE 9]&gt;
-&lt;link href='html/css/fonts/open_sans_ie.css' rel='stylesheet' type='text/css'&gt;
-&lt;link href='html/css/fonts/droid_sans_ie.css' rel='stylesheet' type='text/css'&gt;
-&lt;![endif]--&gt;
-&lt;!-- Core stylesheets do not remove --&gt;
-&lt;link href="html/css/normalize.css" rel="stylesheet"&gt;
-&lt;link href="html/css/bootstrap.min.css" rel="stylesheet"&gt;
-&lt;link href="html/css/bootstrap_plus.css" rel="stylesheet"&gt;
-&lt;!-- Plugins stylesheets --&gt;
-&lt;link href="html/css/idangerous.swiper.css" rel="stylesheet"&gt;
-&lt;link href="html/css/icons.css" rel="stylesheet"&gt;
-&lt;link href="html/css/icons-2.css" rel="stylesheet"&gt;
-&lt;link href="html/css/flags.css" rel="stylesheet"&gt;    
-&lt;link href="html/css/bootstrap-datepicker.css" rel="stylesheet"&gt;
-&lt;link href="html/css/daterangepicker.css" rel="stylesheet"&gt;
-&lt;link href="html/css/footable.core.min.css" rel="stylesheet"&gt;
-&lt;link href="html/css/jquery.nstSlider.min.css" rel="stylesheet"&gt;
-&lt;link href="html/js/amcharts-stock/style.css" rel="stylesheet"&gt; 
-&lt;link href="html/js/flowplayer-6.0.5/skin/minimalist.css" rel="stylesheet"&gt;
-&lt;!-- app stylesheets --&gt;    
-&lt;link href="html/css/style.css" rel="stylesheet"&gt;  
-&lt;link href="html/css/style_GPW.css" rel="stylesheet"&gt; 
-&lt;link href="html/css/style2.css" rel="stylesheet"&gt;
-&lt;link href="html/css/style_patch.css" rel="stylesheet"&gt;
-&lt;link href="html/css/jquery.fancybox.css" rel="stylesheet"&gt;
-&lt;!--[if IE 9]&gt;
- &lt;link href="html/css/ie9.css" rel="stylesheet"&gt;
- &lt;script&gt;
- 	var ie = '9';      
-&lt;/script&gt;
- &lt;![endif]--&gt;
-&lt;!--[if lt IE 9]&gt;
-  &lt;script src="https://oss.maxcdn.com/html5shiv/3.7.2/html5shiv.min.js"&gt;&lt;/script&gt;
-  &lt;script src="https://oss.maxcdn.com/respond/1.4.2/respond.min.js"&gt;&lt;/script&gt;
-  &lt;link href="html/css/ie8.css" rel="stylesheet"&gt;
-  &lt;script&gt;
-  	var ie = '8';      
-  &lt;/script&gt;
-&lt;![endif]--&gt;
-&lt;!--[if lt IE 8]&gt;
-&lt;link href="html/js/ie/warning.css" rel="stylesheet"&gt;
-&lt;script src="html/js/ie/warning.js"&gt;&lt;/script&gt;
-&lt;script&gt;
-    window.onload=function(){e("html/js/ie/")}	
-    var msg1 = "Czy wiesz, że Twoja wersja przeglądarki Internet Explorer wymaga aktualizacji?";
-    var msg2 = "Zaktualizuj swoją przeglądarkę lub wybierz inną by w pełni wykorzystać funkcjonalność naszej strony. Poniżej znajduje się lista najpopularniejszych przeglądarek internetowych.";
-    var msg3 = "Kliknij jedną z ikon by przejść do strony pobierania.";
-    var imgPath = "html/js/ie/";	
-&lt;/script&gt;		
-&lt;![endif]--&gt;
-&lt;!-- jQuery --&gt;
-&lt;style&gt;
-div.dataTables_wrapper {
-        width: 100%;
-        margin: 0 auto;
-}
-&lt;/style&gt;
-&lt;script src="html/js/jquery-3.5.1.min.js"&gt;&lt;/script&gt;
-&lt;script src="html/js/jquery.migrate-1.4.1.min.js"&gt;&lt;/script&gt;
-&lt;script&gt;
-	function is_touch_device() {
-		return 'ontouchstart' in window || navigator.maxTouchPoints;
-	};
-	if( is_touch_device() ) {
-		var root = document.documentElement;
-		root.className += ' touch';
-	}	
-&lt;/script&gt;
-&lt;script language="javascript" type="text/javascript"&gt;
-var BASE_URL = "https://www.gpw.pl/";
-var STATIC_URL = "https://www.gpw.pl/";
-var AJAX_BASE_URL = "https://www.gpw.pl/";
-var NOW = 1675513288000;
-var UTC_OFFSET = '1';
-var LANG = 'pl';
-var THEME = 'v4';
-&lt;/script&gt;
-  &lt;meta name="smartbanner:title" content="GPW"&gt;
-  &lt;meta name="smartbanner:author" content="GPW w Warszawie SA"&gt;
-  &lt;meta name="smartbanner:price" content="Pobierz darmową aplikację"&gt;
-  &lt;meta name="smartbanner:price-suffix-apple" content=" "&gt;&lt;!-- - On the App Store"&gt;--&gt;
-  &lt;meta name="smartbanner:price-suffix-google" content=" "&gt;&lt;!-- - In Google Play"&gt;--&gt;
-  &lt;meta name="smartbanner:icon-apple" content="/html/img/gpw_icon.png"&gt;
-  &lt;meta name="smartbanner:icon-google" content="/html/img/gpw_icon.png"&gt;
-  &lt;meta name="smartbanner:button" content="ZOBACZ"&gt;
-  &lt;meta name="smartbanner:button-url-apple" content="https://itunes.apple.com/us/app/giełda-papierów-wartościowych/id542593952"&gt;
-  &lt;meta name="smartbanner:button-url-google" content="https://play.google.com/store/apps/details?id=pl.moveapp.gpw"&gt;
-  &lt;meta name="smartbanner:enabled-platforms" content="android,ios"&gt;
-  &lt;meta name="smartbanner:close-label" content="Close this banner"&gt;
-  &lt;!--&lt;meta name="smartbanner:api" content="true"&gt;--&gt;
-  &lt;!--&lt;meta name="smartbanner:hide-ttl" content="2629746000"&gt;--&gt;
-  &lt;!--&lt;meta name="smartbanner:hide-path" content="/"&gt;--&gt;
-  &lt;!--&lt;meta name="smartbanner:disable-positioning" content="true"&gt;--&gt;
-  &lt;!-- Enable for all platforms --&gt;
-  &lt;!--&lt;meta name="smartbanner:include-user-agent-regex" content=".*"&gt;--&gt;
-  &lt;!-- iOS --&gt;
-  &lt;!--&lt;meta name="smartbanner:enabled-platforms" content="none"&gt;--&gt;
-  &lt;!--&lt;meta name="smartbanner:include-user-agent-regex" content="Mobile.*Safari"&gt;--&gt;
-  &lt;!-- /iOS --&gt;
-  &lt;!--&lt;meta name="smartbanner:custom-design-modifier" content="ios"&gt;--&gt;
-  &lt;link rel="stylesheet" href="/html/css/smartbanner.css"&gt;
-  &lt;script src="/html/js/smartbanner.js"&gt;&lt;/script&gt;
-  &lt;script&gt;
-    let onLoadHandlerForConflictTesting = function() {};
-    window.onload = onLoadHandlerForConflictTesting;
-    document.addEventListener('smartbanner.view', function() { console.log('smartbanner.view'); });
-    document.addEventListener('smartbanner.exit', function() { console.log('smartbanner.exit'); });
-  &lt;/script&gt;
-    &lt;style type="text/css"&gt;.fancybox-margin{margin-right:17px;}&lt;/style&gt;&lt;/head&gt;
-    &lt;body&gt;
-&lt;!--sphider_noindex--&gt;
-    	&lt;!-- Google Tag Manager (noscript) --&gt;
-&lt;noscript&gt;&lt;iframe src="https://www.googletagmanager.com/ns.html?id=GTM-K8CWHCH"
-height="0" width="0" style="display:none;visibility:hidden"&gt;&lt;/iframe&gt;&lt;/noscript&gt;
-&lt;!-- End Google Tag Manager (noscript) --&gt;
-&lt;header role="navigation"&gt;
-	&lt;div class="collapse navbar-collapse searchbar" id="search-collapse"&gt;
-		&lt;div class="container"&gt;
-&lt;form action="wyniki-wyszukiwania"&gt;
-	&lt;div class="input-group input-group-lg"&gt;
-		&lt;input class="form-control query" value="1" name="search" type="hidden"&gt;
-        &lt;input class="form-control query" value="PL" name="search_lang" type="hidden"&gt;
-		&lt;input type="text" name="query" class="form-control" placeholder="Szukaj w GPW"&gt;
-		&lt;span class="input-group-btn"&gt;
-			&lt;button class="btn btn-primary" type="submit"&gt;szukaj&lt;/button&gt;
-		&lt;/span&gt;
-	&lt;/div&gt;
-&lt;/form&gt;
-		&lt;/div&gt;
-	&lt;/div&gt;
-	&lt;nav class="navbar global"&gt;
-		&lt;div class="container"&gt;
-			&lt;div class="navbar-header"&gt;
-				&lt;button type="button" class="navbar-toggle collapsed" data-toggle="collapse" data-target="#navbar-collapse" aria-expanded="false"&gt;
-					&lt;span class="icon-bar"&gt;&lt;/span&gt;
-					&lt;span class="icon-bar"&gt;&lt;/span&gt;
-					&lt;span class="icon-bar"&gt;&lt;/span&gt;
-				&lt;/button&gt;
-				&lt;button type="button" class="navbar-toggle collapsed" data-toggle="collapse" data-target="#search-collapse" aria-expanded="false"&gt;&lt;i class="icon-search"&gt;&lt;/i&gt;&lt;/button&gt;
-				&lt;a class="navbar-brand" href="/"&gt;&lt;img src="html/images/logo_GPW_pl.png"&gt;&lt;/a&gt;
-				&lt;button type="button" class="navbar-toggle collapsed pull-left" data-toggle="collapse" data-target="#globalNav-collapse" aria-expanded="false"&gt;&lt;i class="icon-down"&gt;&lt;/i&gt;&lt;/button&gt;
-			&lt;/div&gt;
-			&lt;div class="collapse navbar-collapse" id="globalNav-collapse"&gt;
-				&lt;ul class="extraNav navbar-nav"&gt;
-										&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="aktualnosci"&gt;Aktualności&lt;/a&gt;&lt;/li&gt;
-	&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="relacje-inwestorskie"&gt;Relacje inwestorskie&lt;/a&gt;&lt;/li&gt;
-	&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="szkola-gieldowa"&gt;Szkoła Giełdowa&lt;/a&gt;&lt;/li&gt;
-	&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="https://gieldatoproste.pl/?utm_source=gpw.pl&amp;amp;utm_medium=top_menu&amp;amp;utm_campaign=top_menu_refferal"&gt;Giełda to proste&lt;/a&gt;&lt;/li&gt;
-	&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="kariera"&gt;Kariera&lt;/a&gt;&lt;/li&gt;
-	&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="esg-gpw"&gt;ESG&lt;/a&gt;&lt;/li&gt;
-	&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="postepowania-zakupowe"&gt;Postępowania zakupowe&lt;/a&gt;&lt;/li&gt;
-					&lt;li class="breakLine"&gt;&lt;/li&gt;
-					&lt;li class="nav-item dropdown"&gt;
-	&lt;a href="javascript:void(0)" id="login-dropdown" class="nav-link dropdown-toggle" data-toggle="dropdown" data-after="true" data-before="true"&gt;&lt;i class="icon-login"&gt;&lt;/i&gt;Zaloguj&lt;/a&gt;
-	&lt;ul class="dropdown-menu dropdown-menu-right" aria-labelledby="login-dropdown" data-after="true"&gt;
-					&lt;li&gt;&lt;a href="https://4bondnet.bondspot.pl/4BondNet" class="dropdown-item" target="_blank"&gt;4BondNet&lt;/a&gt;&lt;/li&gt;
-					&lt;li&gt;&lt;a href="https://4brokernet.gpw.pl/dana-na/auth/url_default/welcome.cgi" class="dropdown-item" target="_blank"&gt;4BrokerNet&lt;/a&gt;&lt;/li&gt;
-			&lt;/ul&gt;
-					&lt;/li&gt;
-&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="en-home" rel="nofollow"&gt;&lt;span class="flag flag-lg flag-gb "&gt;&lt;/span&gt;&lt;/a&gt;&lt;/li&gt;
-					&lt;li class="nav-item visible-sm-inline-block"&gt;&lt;span class="nav-link pointer" data-toggle="collapse" data-target="#search-collapse" aria-expanded="false"&gt;&lt;i class="icon-search"&gt;&lt;/i&gt;&lt;/span&gt;&lt;/li&gt;
-				&lt;/ul&gt;&lt;!--extraNav--&gt;
-			    &lt;ul class="nav"&gt;                	
-			&lt;li class="nav-item active"&gt;&lt;a class="nav-link" href="pl-home" data-after="true" data-before="true"&gt;Główny Rynek GPW&lt;/a&gt;&lt;/li&gt;
-			&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="https://newconnect.pl" data-after="true" data-before="true"&gt;NewConnect&lt;/a&gt;&lt;/li&gt;
-			&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="https://gpwglobalconnect.pl/" data-after="true" data-before="true"&gt;GlobalConnect&lt;/a&gt;&lt;/li&gt;
-			&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="https://gpwcatalyst.pl" data-after="true" data-before="true"&gt;Catalyst&lt;/a&gt;&lt;/li&gt;
-			&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="https://bondspot.pl/" data-after="true" data-before="true"&gt;BondSpot&lt;/a&gt;&lt;/li&gt;
-			&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="https://tge.pl" data-after="true" data-before="true"&gt;TGE&lt;/a&gt;&lt;/li&gt;
-			&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="https://gpwbenchmark.pl/" data-after="true" data-before="true"&gt;GPW Benchmark&lt;/a&gt;&lt;/li&gt;
-			&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="https://www.gpw.pl/fundacja-gpw" data-after="true" data-before="true"&gt;Fundacja GPW&lt;/a&gt;&lt;/li&gt;
-			&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="https://gpwtech.pl" data-after="true" data-before="true"&gt;GPW Tech&lt;/a&gt;&lt;/li&gt;
-			&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="https://gpwlogistics.pl/" data-after="true" data-before="true"&gt;GPW Logistics&lt;/a&gt;&lt;/li&gt;
-	&lt;/ul&gt;
-			&lt;/div&gt;
-		&lt;/div&gt;
-	&lt;/nav&gt;
-	&lt;nav class="navbar main" data-after="true"&gt;
-		&lt;div class="container"&gt;
-			&lt;div class="row gutter-sm"&gt;
-				&lt;div class="col-md-7 col-lg-8 static"&gt;
-									   	&lt;div class="collapse navbar-collapse" id="navbar-collapse"&gt;&lt;ul class="nav navbar-nav"&gt;&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="akcje" id="dropdownMenu1" data-toggle="dropdown" data-after="true" data-before="true"&gt;Notowania&lt;/a&gt;&lt;div class="dropdown-menu" aria-labelledby="dropdownMenu1" data-after="true"&gt;&lt;div class="container"&gt;&lt;div class="row"&gt;&lt;div class="col-md-8 col-lg-9 padding-top-30"&gt;&lt;div class="row margin-bottom-30"&gt;&lt;div class="col-sm-4"&gt;&lt;a class="dropdown-item" href="https://gpwbenchmark.pl/notowania"&gt;&lt;span&gt;Indeksy&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="akcje"&gt;&lt;span&gt;Akcje i PDA&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="akcje-spolki-rodzinne"&gt;&lt;span&gt;Spółki rodzinne&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="prawa-poboru"&gt;&lt;span&gt;Prawa poboru&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="prawa-poboru-jednolite"&gt;&lt;span&gt;Prawa poboru - notowania jednolite&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="instrumenty-pochodne"&gt;&lt;span&gt;Instrumenty pochodne&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="produkty-strukturyzowane"&gt;&lt;span&gt;Produkty strukturyzowane&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="certyfikaty-inwestycyjne"&gt;&lt;span&gt;Certyfikaty inwestycyjne&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="etfy"&gt;&lt;span&gt;ETF-y&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="lista-alertow-notowania"&gt;&lt;span&gt;Lista Alertów&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="spolki-ze-szczegolnym-oznaczeniem-notowania-ciagle"&gt;&lt;span&gt;Spółki ze szczególnym oznaczeniem - notowania ciągłe&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="col-sm-4"&gt;&lt;a class="dropdown-item" href="spolki-ze-szczegolnym-oznaczeniem-notowania-jednolite"&gt;&lt;span&gt;Spółki ze szczególnym oznaczeniem - notowania  jednolite&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="program-wspierania-plynnosci-notowania"&gt;&lt;span&gt;Program Wspierania Płynności&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="strefa-nizszej-plynnosci"&gt;&lt;span&gt;Strefa niższej płynności&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="spolki-regulacja-s"&gt;&lt;span&gt;Spółki podlegające Regulacji S&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="transakcje-pakietowe"&gt;&lt;span&gt;Transakcje pakietowe&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="transakcje-biso"&gt;&lt;span&gt;Transakcje BISO&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="zawieszenia-i-wykluczenia"&gt;&lt;span&gt;Zawieszenia i wykluczenia&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="jakosc_wykonania_transakcji"&gt;&lt;span&gt;Jakość wykonania transakcji&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="https://www.gpw.pl/aktualnosci?ph_main_01_start=show&amp;amp;ph_main_01_cmn_id=106468&amp;amp;title=MiFID+II+%2F+MiFIR"&gt;&lt;span&gt;MiFID II / MiFIR&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="zmiana-kroku-notowania"&gt;&lt;span&gt;Kroki notowania&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="inne"&gt;&lt;span&gt;Inne&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="col-sm-4"&gt;&lt;a class="dropdown-item" href="dane-po-zakonczeniu-sesji"&gt;&lt;span&gt;Dane po zakończeniu sesji&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="col-md-3 col-md-offset-1 col-lg-offset-0 padding-top-30 blueBox"&gt;&lt;div class="row"&gt;&lt;div class="col-md-12"&gt;&lt;a class="dropdown-item no-hover" href="javascript:void(0)"&gt;&lt;strong&gt;PODSTAWOWE INFORMACJE&lt;/strong&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="row margin-bottom-30"&gt;&lt;div class="col-sm-12"&gt;&lt;a class="dropdown-item" href="archiwum-notowan"&gt;&lt;span&gt;Archiwum notowań&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="statystyki-gpw"&gt;&lt;span&gt;Statystyki GPW&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="wskazniki"&gt;&lt;span&gt;Wskaźniki&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="krotka-sprzedaz"&gt;&lt;span&gt;Krótka sprzedaż&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item btnModal" href="javascript:void(0)"&gt;&lt;span&gt;Analiza techniczna&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="legenda"&gt;&lt;span&gt;Legenda&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="objasnienia-nazw-sektorow"&gt;&lt;span&gt;Objaśnienia nazw sektorów&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="jak-zaczac-inwestowac"&gt;&lt;span&gt;Jak zacząć inwestować?&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="statystyki-gpw" id="dropdownMenu9" data-after="true" data-before="true"&gt;Statystyki&lt;/a&gt;&lt;/li&gt;&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="spolki" id="dropdownMenu10" data-toggle="dropdown" data-after="true" data-before="true"&gt;Spółki&lt;/a&gt;&lt;div class="dropdown-menu" aria-labelledby="dropdownMenu10" data-after="true"&gt;&lt;div class="container"&gt;&lt;div class="row"&gt;&lt;div class="col-md-8 col-lg-9 padding-top-30"&gt;&lt;div class="row margin-bottom-30"&gt;&lt;div class="col-sm-4"&gt;&lt;a class="dropdown-item" href="spolki"&gt;&lt;span&gt;Lista spółek&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="spolki-rodzinne"&gt;&lt;span&gt;Spółki rodzinne&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="debiuty"&gt;&lt;span&gt;Debiuty&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="kolejne-emisje-spolek"&gt;&lt;span&gt;Kolejne emisje spółek&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="https://www.gpw.pl/dobre-praktyki2021"&gt;&lt;span&gt;Dobre Praktyki&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="programy-partnerskie"&gt;&lt;span&gt;Programy partnerskie&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="komunikaty"&gt;&lt;span&gt;Raporty Spółek ESPI/EBI&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="col-sm-4"&gt;&lt;a class="dropdown-item" href="obowiazki-informacyjne"&gt;&lt;span&gt;Obowiązki informacyjne&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="gpwpa"&gt;&lt;span&gt;Giełdowy Program Wsparcia Pokrycia Analitycznego 3.0&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="col-md-3 col-md-offset-1 col-lg-offset-0 padding-top-30 blueBox"&gt;&lt;div class="row margin-bottom-30"&gt;&lt;div class="col-sm-12"&gt;&lt;a class="dropdown-item" href="spolki-zagraniczne"&gt;&lt;span&gt;Spółki zagraniczne&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="https://www.gpw.pl/regulacja-s"&gt;&lt;span&gt;Spółki podlegające Regulacji S&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="https://www.gpw.pl/zasada-144A"&gt;&lt;span&gt;Spółki podlegające Regulacji S oraz Zasadzie 144A&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="uslugi" id="dropdownMenu4" data-toggle="dropdown" data-after="true" data-before="true"&gt;Usługi giełdowe&lt;/a&gt;&lt;div class="dropdown-menu" aria-labelledby="dropdownMenu4" data-after="true"&gt;&lt;div class="container"&gt;&lt;div class="row"&gt;&lt;div class="col-md-8 col-lg-9 padding-top-30"&gt;&lt;div class="col-sm-4"&gt;&lt;a class="dropdown-item no-hover" style="cursor:pointer" href="uslugi"&gt;&lt;strong&gt;Dla odbiorców informacji&lt;/strong&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="dane-rynkowe"&gt;&lt;span&gt;Dane rynkowe&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="dane-przetworzone-i-wskazniki"&gt;&lt;span&gt;Dane przetworzone i wskaźniki&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="col-sm-4"&gt;&lt;a class="dropdown-item no-hover" style="cursor:pointer" href="promocje"&gt;&lt;strong&gt;Dla członków giełdy&lt;/strong&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="promocje"&gt;&lt;span&gt;Promocje&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="row"&gt;&lt;div class="col-md-12"&gt;&lt;div class="padding-left-15"&gt;&lt;a href="uslugi" class="btn btn-primary pull-left"&gt;Zobacz wszystkie usługi &lt;i class="icon-arrow-big-right"&gt;&lt;/i&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="row margin-bottom-30"&gt;&lt;div class="col-sm-4"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="col-md-3 col-md-offset-1 col-lg-offset-0 padding-top-30 blueBox"&gt;&lt;div class="row"&gt;&lt;div class="col-md-12"&gt;&lt;a class="dropdown-item no-hover" style="cursor:pointer" href="lista-domow-maklerskich"&gt;&lt;strong&gt;Dla inwestorów indywidualnych&lt;/strong&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="row margin-bottom-30"&gt;&lt;div class="col-sm-12"&gt;&lt;a class="dropdown-item btnModal" href="javascript:void(0)"&gt;&lt;span&gt;Analiza techniczna&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="aplikacja-mobilna"&gt;&lt;span&gt;Aplikacja mobilna&lt;/span&gt;&lt;/a&gt;&lt;a class="dropdown-item" href="lista-czlonkow-gieldy"&gt;&lt;span&gt;Lista członków giełdy&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="https://www.gpw.pl/regulacje" id="dropdownMenu4" data-after="true" data-before="true"&gt;Regulacje&lt;/a&gt;&lt;/li&gt;&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="jak-zaczac-inwestowac" id="dropdownMenu5" data-toggle="dropdown" data-after="true" data-before="true"&gt;Jak zacząć?&lt;/a&gt;&lt;div class="dropdown-menu" aria-labelledby="dropdownMenu5" data-after="true" style="background:#d9e6ef;"&gt;&lt;div class="container"&gt;&lt;div class="row"&gt;&lt;div class="col-md-12 col-lg-12 padding-top-30"&gt;&lt;div class="col-md-4 dropdown-item no-hover"&gt;&lt;a class="dropdown-item no-hover" href="jak-zaczac-inwestowac"&gt;&lt;strong&gt;Jak zacząć inwestować?&lt;/strong&gt;&lt;/a&gt;&lt;span style="height: 37px;color:#000 !important; width:90%;"&gt;Dla inwestorów indywidualnych chcących zacząć inwestować na Głównym Rynku&lt;br&gt;&lt;/span&gt;&lt;a href="jak-zaczac-inwestowac" class="btn btn-primary pull-left  margin-bottom-30"&gt;Przejdź dalej &lt;i class="icon-arrow-big-right"&gt;&lt;/i&gt;&lt;/a&gt;&lt;div class="clearfix"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="col-md-4 dropdown-item no-hover"&gt;&lt;a class="dropdown-item no-hover" href="jak-zaczac-emitowac"&gt;&lt;strong&gt;Jak zostać spółką giełdową?&lt;/strong&gt;&lt;/a&gt;&lt;span style="height: 37px;color:#000 !important; width:90%;"&gt;Dla spółek planujących wprowadzenie akcji na Główny Rynek&lt;br&gt;&lt;/span&gt;&lt;a href="jak-zaczac-emitowac" class="btn btn-primary pull-left  margin-bottom-30"&gt;Przejdź dalej &lt;i class="icon-arrow-big-right"&gt;&lt;/i&gt;&lt;/a&gt;&lt;div class="clearfix"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="col-md-4 dropdown-item no-hover"&gt;&lt;a class="dropdown-item no-hover" href="jak-dolaczyc"&gt;&lt;strong&gt;Kto może zostać członkiem giełdy?&lt;/strong&gt;&lt;/a&gt;&lt;span style="height: 37px;color:#000 !important; width:90%;"&gt;Dla podmiotów chcących zostać członkami Giełdy&lt;br&gt;&lt;br&gt;&lt;/span&gt;&lt;a href="jak-dolaczyc" class="btn btn-primary pull-left  margin-bottom-30"&gt;Przejdź dalej &lt;i class="icon-arrow-big-right"&gt;&lt;/i&gt;&lt;/a&gt;&lt;div class="clearfix"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;&lt;li class="nav-item"&gt;&lt;a class="nav-link" href="https://gpw.pl/pl-ri-newsletter" id="dropdownMenu2" data-after="true" data-before="true"&gt;Newsletter&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;!--nav--&gt;&lt;/div&gt;&lt;!--collapse--&gt;
-												&lt;/div&gt;
-				&lt;div class="col-md-2 col-lg-2 static"&gt;
-					&lt;div id="navbar-collapse" class="collapse navbar-collapse"&gt;
-						&lt;ul class="nav navbar-nav socials"&gt;
-							&lt;li&gt;
-								&lt;a title="Dołącz do nas" target="_blank" href="http://www.facebook.com/GPW.WSE"&gt;
-									&lt;img alt="" src="/html/img/ico_facebook.png"&gt;
-								&lt;/a&gt;
-							&lt;/li&gt;
-							&lt;li&gt;
-								&lt;a title="Śledź nas" target="_blank" href="http://www.twitter.com/GPW_WSExchange"&gt;
-									&lt;img alt="RSS" src="/html/img/ico_tweet.png"&gt;
-								&lt;/a&gt;
-							&lt;/li&gt;
-														&lt;li&gt;
-								&lt;a title="Dołącz do nas" target="_blank" href="https://www.instagram.com/gpw.wse/"&gt;
-									&lt;img alt="" src="/html/img/ico_instagram.png"&gt;
-								&lt;/a&gt;
-							&lt;/li&gt;
-														&lt;li&gt;
-								&lt;a title="Subskrybuj nas" target="_blank" href="https://www.youtube.com/user/WarsawStockExchange/videos?view_as=public"&gt;
-									&lt;img alt="" src="/html/img/ico_tube.png"&gt;
-								&lt;/a&gt;
-							&lt;/li&gt;
-							&lt;li&gt;
-								&lt;a title="Dołącz do nas" target="_blank" href="https://pl.linkedin.com/company/warsaw-stock-exchange"&gt;
-									&lt;img alt="" src="/html/img/ico_linkedin.png"&gt;
-								&lt;/a&gt;
-							&lt;/li&gt;
-						&lt;/ul&gt;&lt;!--nav--&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-				&lt;div class="col-md-3 col-lg-2 hidden-xs hidden-sm"&gt;
-&lt;form action="wyniki-wyszukiwania"&gt;
-	&lt;div class="input-group"&gt;
-		&lt;input class="form-control query" value="1" name="search" type="hidden"&gt;
-        &lt;input class="form-control query" value="PL" name="search_lang" type="hidden"&gt;
-		&lt;input type="text" name="search" class="form-control" placeholder="Szukaj w GPW"&gt;
-		&lt;span class="input-group-btn"&gt;
-			&lt;button class="btn" type="submit"&gt;&lt;i class="icon-search"&gt;&lt;/i&gt;&lt;/button&gt;
-		&lt;/span&gt;
-	&lt;/div&gt;
-&lt;/form&gt;
-				&lt;/div&gt;
-			&lt;/div&gt;&lt;!--row--&gt;
-		&lt;/div&gt;&lt;!--container--&gt;
-	&lt;/nav&gt;
-&lt;/header&gt;
-&lt;div class="modal fade modal-fullscreen" tabindex="-1" role="dialog" id="notoriaModal"&gt;
-    &lt;div class="modal-dialog modal-width-max"&gt;
-        &lt;div class="modal-content"&gt;
-            &lt;div class="modal-header"&gt;
-                &lt;button type="button" class="close" data-dismiss="modal" aria-label="Close"&gt;&lt;span aria-hidden="true"&gt;×&lt;/span&gt;&lt;/button&gt;
-                &lt;h4 class="modal-title"&gt;&lt;i class="icon-calculator"&gt;&lt;/i&gt; Analiza techniczna&lt;/h4&gt;
-            &lt;/div&gt;
-            &lt;div class="modal-body"&gt;
-                &lt;div class="row"&gt;
-                    &lt;script type="text/javascript" src="https://gpw.notoria.pl/widgets/ta/notoria.php"&gt;&lt;/script&gt; 
-                    &lt;iframe src="https://gpw.notoria.pl/widgets/ta/index.html?symbid=PLPKN0000018&amp;amp;symbname=PKNORLEN&amp;amp;symburl=/widgets/ta/symbols.php&amp;amp;dataurl=/widgets/ta/data.php&amp;amp;periods=1d,1w,1m&amp;amp;periods_intraday=1&amp;amp;ranges=1d,1m,3m,6m,1y,2y,3y,5y,10y" frameborder="0" style="width: 100%; overflow: hidden;" id="iFrameResizer0" scrolling="no"&gt;&lt;/iframe&gt; 
-                &lt;/div&gt;
-            &lt;/div&gt;
-        &lt;/div&gt;&lt;!-- /.modal-content --&gt;
-    &lt;/div&gt;&lt;!-- /.modal-dialog --&gt;
-&lt;/div&gt;&lt;!-- /.modal --&gt;
-&lt;div class="modal fade" tabindex="-1" role="dialog" id="calculateModal"&gt;
-    &lt;div class="modal-dialog modal-lg"&gt;
-        &lt;div class="modal-content"&gt;
-            &lt;div class="modal-header"&gt;
-                &lt;button type="button" class="close" data-dismiss="modal" aria-label="Close"&gt;&lt;span aria-hidden="true"&gt;×&lt;/span&gt;&lt;/button&gt;
-                &lt;h4 class="modal-title"&gt;&lt;i class="icon-calculator"&gt;&lt;/i&gt; Kalkulator&lt;/h4&gt;
-            &lt;/div&gt;
-            &lt;div class="modal-body"&gt;
-                &lt;div class="row" style="padding-bottom:40px;" id="calculateDisclaimer"&gt;
-                    &lt;div class="col-sm-12"&gt;
-                        Kalkulator wartości opcji („Kalkulator”) został stworzony dla inwestorów indywidualnych w celach edukacyjnych. Giełda Papierów Wartościowych w Warszawie S.A. dołożyła wszelkich starań, aby obliczenia Kalkulatora były kompletne i zgodne z prawdą, nie jest jednak w stanie zagwarantować ich poprawności, a w przypadku informacji pochodzących ze źródeł zewnętrznych ich zgodności ze stanem faktycznym lub prawnym i nie ponosi żadnej odpowiedzialności za jakiekolwiek szkody powstałe w wyniku korzystania z nich. Dane generowane przez Kalkulator nie stanowią oferty kupna ani sprzedaży jakichkolwiek instrumentów finansowych ani usług inwestycyjnych oraz nie mogą być traktowane jako rekomendacja inwestowania w jakiekolwiek instrumenty finansowe.
-                    &lt;/div&gt;
-                    &lt;div class="form-group margin-top-10"&gt;
-                                    &lt;div class="col-sm-6 col-md-6 text-right"&gt;
-                                        &lt;button class="btn btn-primary" type="button" id="modalYes"&gt;TAK&lt;/button&gt;
-                                    &lt;/div&gt;
-                                    &lt;div class="col-sm-6 col-md-6 text-left"&gt;
-                                        &lt;button class="btn btn-primary" type="button" data-dismiss="modal"&gt;NIE&lt;/button&gt;
-                                    &lt;/div&gt;
-                                &lt;/div&gt;
-                &lt;/div&gt;
-                &lt;div class="row" id="modalContent" style="display:none"&gt;
-                    &lt;div class="col-xs-12 col-md-6"&gt;
-                        &lt;div class="bg_lightGrey padding-bottom-15 padding-top-15 padding-left-15 padding-right-15 margin-bottom-10"&gt;
-                            &lt;div class="margin-bottom-20"&gt;
-                                &lt;h4&gt;Wartości opcji &lt;b id="calcModalName"&gt;OW20H152900&lt;/b&gt;&lt;/h4&gt;
-                                &lt;a href="" class="grey"&gt;Jak działa kalkulator&lt;/a&gt; &lt;a href="javascript:void(0)" title="" data-toggle="popover" data-trigger="focus" data-content="Kalkulator wartości opcji służy do wyliczania teoretycznych wartości opcji na podstawie modelu Black-Scholes oraz panujących warunków rynkowych. Naciśnij niebieskie ikonki informacyjne, żeby przeczytać dokładne instrukcje wypełniania pól" data-original-title=""&gt;&lt;i class="glyphicon glyphicon-question-sign"&gt;&lt;/i&gt;&lt;/a&gt;
-                            &lt;/div&gt;
-                            &lt;form class="form-horizontal"&gt;
-                                &lt;div class="form-group margin-bottom-5"&gt;
-                                    &lt;label for="" class="col-sm-6 col-md-7 control-label"&gt;Instrument bazowy &lt;a href="javascript:void(0)" title="" data-toggle="popover" data-trigger="focus" data-content="wybierz instrument bazowy opcji; obecnie na GPW notowane są tylko opcje na WIG20 i dlatego to pole ustawione jest tylko na ‘WIG20’" data-original-title=""&gt;&lt;i class="glyphicon glyphicon-question-sign"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/label&gt;
-                                    &lt;div class="col-sm-6 col-md-5"&gt;
-                                        &lt;input type="text" class="form-control input-sm" id="calcModalInstrumentBase" readonly="" placeholder="WIG20"&gt;
-                                    &lt;/div&gt;
-                                &lt;/div&gt;
-                                &lt;div class="form-group margin-bottom-5"&gt;
-                                    &lt;label for="" class="col-sm-6 col-md-7 control-label"&gt;Data wgaśnięcia opcji &lt;a href="javascript:void(0)" title="" data-toggle="popover" data-trigger="focus" data-content="wybierz datę wygaśnięcia opcji; jeżeli nacisnąłeś ikonkę kalkulatora przy pełnej nazwie opcji w notowaniach nie ma możliwości zmiany daty wygaśnięcia" data-original-title=""&gt;&lt;i class="glyphicon glyphicon-question-sign"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/label&gt;
-                                    &lt;div class="col-sm-6 col-md-5"&gt;
-										&lt;select data-name="expiry_date" disabled="" readonly="" class="form-control input-sm" id="calcModalExpiryDate"&gt;
-                                                                                        &lt;option value=""&gt;--------&lt;/option&gt;
-                                                                                        											&lt;option value="2023-02-17" selected="selected"&gt;2023-02-17&lt;/option&gt;
-																						&lt;option value="2023-03-17"&gt;2023-03-17&lt;/option&gt;
-																						&lt;option value="2023-06-16"&gt;2023-06-16&lt;/option&gt;
-																						&lt;option value="2023-09-15"&gt;2023-09-15&lt;/option&gt;
-																						&lt;option value="2023-12-15"&gt;2023-12-15&lt;/option&gt;
-																						&lt;option value="2024-03-15"&gt;2024-03-15&lt;/option&gt;
-																					&lt;/select&gt;
-										&lt;!--&lt;input type="text" class="form-control input-sm" id="calcModalExpiryDate" placeholder=""&gt;
-                                        &lt;select class="form-control input-sm"&gt;
-                                            &lt;option value=""&gt;&lt;/option&gt;
-                                        &lt;/select&gt;--&gt;
-                                    &lt;/div&gt;
-                                &lt;/div&gt;
-                                &lt;div class="form-group margin-bottom-5"&gt;
-                                    &lt;label for="" class="col-sm-6 col-md-7 control-label"&gt;Kurs wykonania &lt;a href="javascript:void(0)" title="" data-toggle="popover" data-trigger="focus" data-content="wybierz kurs wykonania opcji; jeżeli nacisnąłeś ikonkę kalkulatora przy pełnej nazwie opcji w notowaniach nie ma możliwości zmiany kursu wykonania" data-original-title=""&gt;&lt;i class="glyphicon glyphicon-question-sign"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/label&gt;
-                                    &lt;div class="col-sm-6 col-md-5"&gt;
-                                        &lt;input type="text" class="form-control input-sm" id="calcModalKW"&gt;
-                                    &lt;/div&gt;
-                                &lt;/div&gt;
-                                &lt;div class="form-group margin-bottom-5"&gt;
-                                    &lt;label for="" class="col-sm-6 col-md-7 control-label"&gt;Kurs instr. bazowego &lt;a href="javascript:void(0)" title="" data-toggle="popover" data-trigger="focus" data-content="wpisz wartość instrumentu bazowego; jeżeli nacisnąłeś ikonkę kalkulatora w notowaniach przy pełnej nazwie opcji, pole to jest automatycznie zasilane ostatnią wartością instrumentu bazowego (opóźnienie 15 min.) danej serii opcji" data-original-title=""&gt;&lt;i class="glyphicon glyphicon-question-sign"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/label&gt;
-                                    &lt;div class="col-sm-6 col-md-5"&gt;
-                                        &lt;input type="text" class="form-control input-sm" id="calcModalInstrumentBaseValue" placeholder=""&gt;
-                                    &lt;/div&gt;
-                                &lt;/div&gt;
-                                &lt;div class="form-group margin-bottom-5"&gt;
-                                    &lt;label for="" class="col-sm-6 col-md-7 control-label"&gt;Stopa dywidendy &lt;a href="javascript:void(0)" title="" data-toggle="popover" data-trigger="focus" data-content="wpisz wartość dywidendy (%) instrumentu bazowego do terminu wygaśnięcia opcji; jeżeli nacisnąłeś ikonkę kalkulatora w notowaniach przy pełnej nazwie opcji, pole to jest automatycznie zasilane wartością dywidendy obliczanej przez GPW i dostępnej w bieżących wskaźnikach dla opcji" data-original-title=""&gt;&lt;i class="glyphicon glyphicon-question-sign"&gt;&lt;/i&gt;&lt;/a&gt; &lt;/label&gt;
-                                    &lt;div class="col-sm-6 col-md-5"&gt;
-                                        &lt;input type="text" class="form-control input-sm" id="calcModalDividendYield" placeholder=""&gt;
-                                    &lt;/div&gt;
-                                &lt;/div&gt;
-                                &lt;div class="form-group margin-bottom-5"&gt;
-                                    &lt;label for="" class="col-sm-6 col-md-7 control-label"&gt;Zmienność &lt;a href="javascript:void(0)" title="" data-toggle="popover" data-trigger="focus" data-content="wpisz zmienność instrumentu bazowego (%); jeżeli nacisnąłeś ikonkę kalkulatora w notowaniach przy pełnej </t>
+          <t>DINOPL
+385,9000 zł 1,55%
+Wartość 75 354 764,10
+ALLEGRO
+31,5050 zł 1,40%
+Wartość 168 543 389,93
+PEKAO
+93,4000 zł 1,15%
+Wartość 121 628 855,64
+PKOBP
+32,7200 zł 1,14%
+Wartość 90 798 923,48
+ASSECOPOL
+79,0000 zł 1,09%
+Wartość 4 425 982,70
+SANPL
+290,0000 zł 0,97%
+Wartość 10 503 794,60
+PEPCO
+43,3600 zł 0,84%
+Wartość 68 145 345,86
+KETY
+508,0000 zł 0,79%
+Wartość 7 191 470,50
+CDPROJEKT
+146,8000 zł 0,70%
+Wartość 69 352 023,18
+LPP
+10 350,0000 zł 0,68%
+Wartość 27 940 340,00
+KRUK
+353,6000 zł 0,45%
+Wartość 10 757 767,40
+MBANK
+320,0000 zł 0,38%
+Wartość 10 250 226,80
+PZU
+37,2000 zł 0,08%
+Wartość 37 173 658,74
+PKNORLEN
+63,0400 zł -0,82%
+Wartość 85 251 869,58
+ORANGEPL
+6,9120 zł -0,86%
+Wartość 5 774 727,98
+CYFRPLSAT
+18,6000 zł -1,06%
+Wartość 3 595 752,41
+PGE
+6,9860 zł -1,85%
+Wartość 10 243 533,02
+CCC
+41,0900 zł -2,17%
+Wartość 5 849 541,38
+KGHM
+137,7500 zł -2,62%
+Wartość 122 721 664,65
+JSW
+57,6200 zł -4,76%
+Wartość 69 373 164,50</t>
         </is>
       </c>
     </row>
